--- a/trunk/03. SourceCode/BKI_HRM/bin/Debug/Reports/Templates/Template_Import_nhan_su.xlsx
+++ b/trunk/03. SourceCode/BKI_HRM/bin/Debug/Reports/Templates/Template_Import_nhan_su.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\00. WORK - PROJECT\7. BKI_HRM_0\01. Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14040" windowHeight="2955"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="87">
   <si>
     <t>Nam</t>
   </si>
@@ -51,15 +56,9 @@
     <t>Thợ may</t>
   </si>
   <si>
-    <t>Vũ Trâm Anh</t>
-  </si>
-  <si>
     <t>Học sinh</t>
   </si>
   <si>
-    <t>22898</t>
-  </si>
-  <si>
     <t>Mã nhân viên</t>
   </si>
   <si>
@@ -265,6 +264,27 @@
   </si>
   <si>
     <t>STT</t>
+  </si>
+  <si>
+    <t>Họ tên Vợ/Chồng</t>
+  </si>
+  <si>
+    <t>Nghề nghiệp Vợ/Chồng</t>
+  </si>
+  <si>
+    <t>Năm sinh Vợ/Chồng</t>
+  </si>
+  <si>
+    <t>Trần Thị A</t>
+  </si>
+  <si>
+    <t>Quản lý</t>
+  </si>
+  <si>
+    <t>22222</t>
+  </si>
+  <si>
+    <t>Vũ Thị A</t>
   </si>
 </sst>
 </file>
@@ -323,7 +343,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -347,6 +367,9 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -620,7 +643,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -628,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW2"/>
+  <dimension ref="A1:AZ4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
+      <selection activeCell="AO3" sqref="AO3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,7 +687,7 @@
     <col min="27" max="27" width="7.5703125" customWidth="1"/>
     <col min="28" max="28" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.7109375" style="7" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="13.140625" style="7" customWidth="1"/>
     <col min="31" max="31" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="19.5703125" bestFit="1" customWidth="1"/>
@@ -684,166 +707,178 @@
     <col min="47" max="47" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="X1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD1" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ1" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV1" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW1" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX1" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY1" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="T1" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="U1" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="V1" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="W1" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="X1" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y1" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z1" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA1" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB1" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD1" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE1" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF1" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG1" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH1" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI1" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ1" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK1" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL1" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="AM1" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="AN1" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AO1" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP1" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ1" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AR1" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="AS1" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AT1" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU1" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV1" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW1" s="9" t="s">
-        <v>59</v>
+      <c r="AZ1" s="9" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:49" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
@@ -855,10 +890,10 @@
         <v>34110.817766203705</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="3">
@@ -868,68 +903,68 @@
         <v>39226</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="P2" s="1">
         <v>2015</v>
       </c>
       <c r="Q2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="S2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="T2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="V2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="T2" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="U2" s="1" t="s">
+      <c r="X2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="W2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="Z2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="Y2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AB2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="AD2" s="8"/>
       <c r="AE2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG2" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="AH2" s="1" t="s">
         <v>5</v>
@@ -953,10 +988,10 @@
         <v>1964</v>
       </c>
       <c r="AO2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="AQ2" s="1">
         <v>123</v>
@@ -965,7 +1000,7 @@
         <v>1</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT2" s="1">
         <v>12312</v>
@@ -979,6 +1014,65 @@
       <c r="AW2" s="1">
         <v>1234</v>
       </c>
+      <c r="AX2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ2" s="13">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1"/>
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="1"/>
+      <c r="AU4" s="1"/>
+      <c r="AV4" s="1"/>
+      <c r="AW4" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
